--- a/requirements & planning/burndown_Bas.xlsx
+++ b/requirements & planning/burndown_Bas.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\opdrachtenOOP\bas-bezorgservice\requirements &amp; planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E869F84B-A64A-44E2-84D6-F062A3068E27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{012B9110-F280-4A82-92B0-5D191F17E976}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D64FC014-072E-4862-83BE-4A77B874CE33}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="46">
   <si>
     <t>Taak</t>
   </si>
@@ -763,22 +763,22 @@
                   <c:v>137</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>129</c:v>
+                  <c:v>128</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>129</c:v>
+                  <c:v>104</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>129</c:v>
+                  <c:v>104</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>129</c:v>
+                  <c:v>104</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>129</c:v>
+                  <c:v>104</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>129</c:v>
+                  <c:v>104</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2058,8 +2058,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD8170B0-2E68-477D-80A9-FF8E7DC32F40}">
   <dimension ref="A1:J78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O67" sqref="O67"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2229,7 +2229,7 @@
       </c>
       <c r="C8" s="27"/>
       <c r="D8" s="27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E8" s="27"/>
       <c r="F8" s="27"/>
@@ -2283,8 +2283,8 @@
       </c>
       <c r="C11" s="32"/>
       <c r="D11" s="32"/>
-      <c r="E11" s="32" t="s">
-        <v>31</v>
+      <c r="E11" s="32">
+        <v>2</v>
       </c>
       <c r="F11" s="32"/>
       <c r="G11" s="32"/>
@@ -2301,8 +2301,8 @@
       </c>
       <c r="C12" s="32"/>
       <c r="D12" s="32"/>
-      <c r="E12" s="32" t="s">
-        <v>31</v>
+      <c r="E12" s="32">
+        <v>2</v>
       </c>
       <c r="F12" s="32"/>
       <c r="G12" s="32"/>
@@ -2319,8 +2319,8 @@
       </c>
       <c r="C13" s="32"/>
       <c r="D13" s="32"/>
-      <c r="E13" s="32" t="s">
-        <v>31</v>
+      <c r="E13" s="32">
+        <v>2</v>
       </c>
       <c r="F13" s="32"/>
       <c r="G13" s="32"/>
@@ -2337,8 +2337,8 @@
       </c>
       <c r="C14" s="32"/>
       <c r="D14" s="32"/>
-      <c r="E14" s="32" t="s">
-        <v>31</v>
+      <c r="E14" s="32">
+        <v>2</v>
       </c>
       <c r="F14" s="32"/>
       <c r="G14" s="32"/>
@@ -2355,8 +2355,8 @@
       </c>
       <c r="C15" s="32"/>
       <c r="D15" s="32"/>
-      <c r="E15" s="32" t="s">
-        <v>31</v>
+      <c r="E15" s="32">
+        <v>2</v>
       </c>
       <c r="F15" s="32"/>
       <c r="G15" s="32"/>
@@ -2373,8 +2373,8 @@
       </c>
       <c r="C16" s="32"/>
       <c r="D16" s="32"/>
-      <c r="E16" s="32" t="s">
-        <v>31</v>
+      <c r="E16" s="32">
+        <v>2</v>
       </c>
       <c r="F16" s="32"/>
       <c r="G16" s="32"/>
@@ -2391,8 +2391,8 @@
       </c>
       <c r="C17" s="32"/>
       <c r="D17" s="32"/>
-      <c r="E17" s="32" t="s">
-        <v>31</v>
+      <c r="E17" s="32">
+        <v>2</v>
       </c>
       <c r="F17" s="32"/>
       <c r="G17" s="32"/>
@@ -2409,8 +2409,8 @@
       </c>
       <c r="C18" s="32"/>
       <c r="D18" s="32"/>
-      <c r="E18" s="32" t="s">
-        <v>31</v>
+      <c r="E18" s="32">
+        <v>2</v>
       </c>
       <c r="F18" s="32"/>
       <c r="G18" s="32"/>
@@ -2427,8 +2427,8 @@
       </c>
       <c r="C19" s="32"/>
       <c r="D19" s="32"/>
-      <c r="E19" s="32" t="s">
-        <v>31</v>
+      <c r="E19" s="32">
+        <v>2</v>
       </c>
       <c r="F19" s="32"/>
       <c r="G19" s="32"/>
@@ -2445,8 +2445,8 @@
       </c>
       <c r="C20" s="32"/>
       <c r="D20" s="32"/>
-      <c r="E20" s="32" t="s">
-        <v>31</v>
+      <c r="E20" s="32">
+        <v>2</v>
       </c>
       <c r="F20" s="32"/>
       <c r="G20" s="32"/>
@@ -2463,8 +2463,8 @@
       </c>
       <c r="C21" s="32"/>
       <c r="D21" s="32"/>
-      <c r="E21" s="32" t="s">
-        <v>31</v>
+      <c r="E21" s="32">
+        <v>2</v>
       </c>
       <c r="F21" s="32"/>
       <c r="G21" s="32"/>
@@ -2481,8 +2481,8 @@
       </c>
       <c r="C22" s="32"/>
       <c r="D22" s="32"/>
-      <c r="E22" s="32" t="s">
-        <v>31</v>
+      <c r="E22" s="32">
+        <v>2</v>
       </c>
       <c r="F22" s="32"/>
       <c r="G22" s="32"/>
@@ -3476,31 +3476,31 @@
       </c>
       <c r="D77" s="7">
         <f t="shared" si="0"/>
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E77" s="7">
         <f t="shared" si="0"/>
-        <v>129</v>
+        <v>104</v>
       </c>
       <c r="F77" s="7">
         <f t="shared" si="0"/>
-        <v>129</v>
+        <v>104</v>
       </c>
       <c r="G77" s="7">
         <f t="shared" si="0"/>
-        <v>129</v>
+        <v>104</v>
       </c>
       <c r="H77" s="7">
         <f t="shared" si="0"/>
-        <v>129</v>
+        <v>104</v>
       </c>
       <c r="I77" s="8">
         <f t="shared" si="0"/>
-        <v>129</v>
+        <v>104</v>
       </c>
       <c r="J77" s="8">
         <f t="shared" si="0"/>
-        <v>129</v>
+        <v>104</v>
       </c>
     </row>
     <row r="78" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3553,6 +3553,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B7EB66B5F93AD54F88C68A8B3F2870BB" ma:contentTypeVersion="17" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="8c2a24a36bb82fd1af5ed8c009a064aa">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2982a79d-ff19-4d7a-967e-033e92b0df6e" xmlns:ns3="b123560b-c09d-4726-86a8-96759d196851" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c02a383944889dc160483fd1e510a099" ns2:_="" ns3:_="">
     <xsd:import namespace="2982a79d-ff19-4d7a-967e-033e92b0df6e"/>
@@ -3801,16 +3810,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC2C321F-7451-43AC-9409-3566FFDBBB5B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E3F4124-1599-40F1-988E-E24419BF3D94}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3827,12 +3835,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC2C321F-7451-43AC-9409-3566FFDBBB5B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>